--- a/trajetoria_cv.xlsx
+++ b/trajetoria_cv.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>data</t>
   </si>
@@ -84,6 +85,30 @@
   </si>
   <si>
     <t>Analista de BI Sr na Tecnofit</t>
+  </si>
+  <si>
+    <t>Contato</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://github.com/rhozon/CV/blob/main/linked_gif.gif?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/rhozon/CV/blob/main/github.gif?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/rhozon/CV/blob/main/zapanim.gif?raw=true</t>
   </si>
 </sst>
 </file>
@@ -333,52 +358,52 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19117350763197466</c:v>
+                  <c:v>0.14621374282094404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23111371095001718</c:v>
+                  <c:v>0.22897496764836436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26153240385141208</c:v>
+                  <c:v>0.26025489339027341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34996733285690113</c:v>
+                  <c:v>0.29355042451873792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36683470327247814</c:v>
+                  <c:v>0.35226396765935247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42773659136705156</c:v>
+                  <c:v>0.4074082543615879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47972327135322657</c:v>
+                  <c:v>0.49380526881189774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52695947633749296</c:v>
+                  <c:v>0.53945755669289541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5593357240611686</c:v>
+                  <c:v>0.59074752522106611</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62124791535081036</c:v>
+                  <c:v>0.63173058949206651</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67359594660956168</c:v>
+                  <c:v>0.68017250553450292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72813693804743473</c:v>
+                  <c:v>0.7193019216123524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79243190046912204</c:v>
+                  <c:v>0.76665596459169338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82591317901098382</c:v>
+                  <c:v>0.80567283596769024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87770631549410028</c:v>
+                  <c:v>0.86337251555709826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93826022150150357</c:v>
+                  <c:v>0.93917510727251752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1456,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">B2+5%+2%*_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>0.19117350763197466</v>
+        <v>0.14621374282094404</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1443,7 +1468,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:B18" ca="1" si="0">B3+5%+2%*_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>0.23111371095001718</v>
+        <v>0.22897496764836436</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1455,7 +1480,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26153240385141208</v>
+        <v>0.26025489339027341</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1467,7 +1492,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34996733285690113</v>
+        <v>0.29355042451873792</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1479,7 +1504,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36683470327247814</v>
+        <v>0.35226396765935247</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1491,7 +1516,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42773659136705156</v>
+        <v>0.4074082543615879</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1503,7 +1528,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47972327135322657</v>
+        <v>0.49380526881189774</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1515,7 +1540,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52695947633749296</v>
+        <v>0.53945755669289541</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1527,7 +1552,7 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5593357240611686</v>
+        <v>0.59074752522106611</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1539,7 +1564,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62124791535081036</v>
+        <v>0.63173058949206651</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1551,7 +1576,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67359594660956168</v>
+        <v>0.68017250553450292</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1563,7 +1588,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72813693804743473</v>
+        <v>0.7193019216123524</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1575,7 +1600,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79243190046912204</v>
+        <v>0.76665596459169338</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1587,7 +1612,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82591317901098382</v>
+        <v>0.80567283596769024</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1599,7 +1624,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87770631549410028</v>
+        <v>0.86337251555709826</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1611,7 +1636,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93826022150150357</v>
+        <v>0.93917510727251752</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1621,4 +1646,51 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/trajetoria_cv.xlsx
+++ b/trajetoria_cv.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6970" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="trajetoria" sheetId="1" r:id="rId1"/>
+    <sheet name="skills" sheetId="3" r:id="rId2"/>
+    <sheet name="formação" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>data</t>
   </si>
@@ -87,28 +88,76 @@
     <t>Analista de BI Sr na Tecnofit</t>
   </si>
   <si>
-    <t>Contato</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>Linkedin</t>
-  </si>
-  <si>
-    <t>WhatsApp</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://github.com/rhozon/CV/blob/main/linked_gif.gif?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/rhozon/CV/blob/main/github.gif?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/rhozon/CV/blob/main/zapanim.gif?raw=true</t>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Grau</t>
+  </si>
+  <si>
+    <t>LaTeX</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RMarkDown</t>
+  </si>
+  <si>
+    <t>Sparklyr</t>
+  </si>
+  <si>
+    <t>Dplyr e tidyverse</t>
+  </si>
+  <si>
+    <t>Econometria e Estatística</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Google Colab</t>
+  </si>
+  <si>
+    <t>Google Cloud Platform</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Bancos de Dados</t>
+  </si>
+  <si>
+    <t>Excel e VBA</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Git e Github</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Confluence</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>PmBok</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>Finanças e pricing</t>
+  </si>
+  <si>
+    <t>Demand forecast</t>
   </si>
 </sst>
 </file>
@@ -164,8 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -255,7 +311,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$B$1</c:f>
+              <c:f>trajetoria!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -290,7 +346,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$A$2:$A$18</c:f>
+              <c:f>trajetoria!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>mmm/yyyy</c:formatCode>
                 <c:ptCount val="17"/>
@@ -350,7 +406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$B$2:$B$18</c:f>
+              <c:f>trajetoria!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -358,52 +414,52 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14621374282094404</c:v>
+                  <c:v>0.16954883043959634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22897496764836436</c:v>
+                  <c:v>0.20548746989421141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26025489339027341</c:v>
+                  <c:v>0.26772541067489297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29355042451873792</c:v>
+                  <c:v>0.34963458154909371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35226396765935247</c:v>
+                  <c:v>0.40630593688291367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4074082543615879</c:v>
+                  <c:v>0.43259118742145514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49380526881189774</c:v>
+                  <c:v>0.48651489358151906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53945755669289541</c:v>
+                  <c:v>0.53884232730247583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59074752522106611</c:v>
+                  <c:v>0.61138091704201858</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63173058949206651</c:v>
+                  <c:v>0.67095092448006721</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68017250553450292</c:v>
+                  <c:v>0.71356561869501023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7193019216123524</c:v>
+                  <c:v>0.78960491185943171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.76665596459169338</c:v>
+                  <c:v>0.88001424915105941</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80567283596769024</c:v>
+                  <c:v>0.94823248881286071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86337251555709826</c:v>
+                  <c:v>1.0124427110491903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93917510727251752</c:v>
+                  <c:v>1.0450728164236416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,27 +1479,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
     <col min="3" max="3" width="77.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>38047</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
@@ -1451,192 +1507,192 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>38565</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <f ca="1">B2+5%+2%*_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>0.14621374282094404</v>
+        <v>0.16954883043959634</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>38777</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <f t="shared" ref="B4:B18" ca="1" si="0">B3+5%+2%*_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>0.22897496764836436</v>
+        <v>0.20548746989421141</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>39448</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26025489339027341</v>
+        <v>0.26772541067489297</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>39479</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29355042451873792</v>
+        <v>0.34963458154909371</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>39722</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35226396765935247</v>
+        <v>0.40630593688291367</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>39873</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4074082543615879</v>
+        <v>0.43259118742145514</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>39995</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49380526881189774</v>
+        <v>0.48651489358151906</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>40575</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53945755669289541</v>
+        <v>0.53884232730247583</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>40603</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59074752522106611</v>
+        <v>0.61138091704201858</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>41183</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63173058949206651</v>
+        <v>0.67095092448006721</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>43586</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68017250553450292</v>
+        <v>0.71356561869501023</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>43739</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7193019216123524</v>
+        <v>0.78960491185943171</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>43770</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76665596459169338</v>
+        <v>0.88001424915105941</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>43862</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80567283596769024</v>
+        <v>0.94823248881286071</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>44105</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86337251555709826</v>
+        <v>1.0124427110491903</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>44197</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93917510727251752</v>
+        <v>1.0450728164236416</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1650,47 +1706,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>27</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>